--- a/explore/pseudoboolean/mcb-scaling.xlsx
+++ b/explore/pseudoboolean/mcb-scaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F20338E-59A2-8C4C-A6B8-9EEDB771CC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF4D15-3D71-D640-9A92-BA29B19E940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="5640" windowWidth="28840" windowHeight="15860" firstSheet="1" activeTab="5" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
+    <workbookView xWindow="9900" yWindow="15860" windowWidth="28840" windowHeight="15860" firstSheet="1" activeTab="5" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="MCB Operations" sheetId="1" r:id="rId1"/>
@@ -8910,7 +8910,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/explore/pseudoboolean/mcb-scaling.xlsx
+++ b/explore/pseudoboolean/mcb-scaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF4D15-3D71-D640-9A92-BA29B19E940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52AA79-4E02-FC44-B4D8-FB587F6707D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="15860" windowWidth="28840" windowHeight="15860" firstSheet="1" activeTab="5" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
+    <workbookView xWindow="9900" yWindow="11300" windowWidth="32440" windowHeight="15860" firstSheet="1" activeTab="5" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="MCB Operations" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
@@ -58,6 +58,12 @@
   <si>
     <t>Poly Trend</t>
   </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Presum</t>
+  </si>
 </sst>
 </file>
 
@@ -67,13 +73,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,10 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3263,7 +3277,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -3271,7 +3285,280 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nonzeros</c:v>
+                  <c:v>Presum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Rand MinFill'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Rand MinFill'!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>10452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>166068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>327396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>554868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>842436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1203636</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1620900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2703684</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4064868</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5754564</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7705380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12716388</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18990756</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26720868</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35642916</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58378404</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86761764</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121546404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161688612</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>263331108</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>389933604</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>544477476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>722810916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7C9-2F4C-8415-B8097046401C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MCB BDD Ops Rand MinFill'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3338,10 +3625,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops Rand MinFill'!$A$4:$A$20</c:f>
+              <c:f>'MCB BDD Ops Rand MinFill'!$A$4:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -3392,66 +3679,78 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops Rand MinFill'!$B$4:$B$20</c:f>
+              <c:f>'MCB BDD Ops Rand MinFill'!$C$4:$C$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>4914</c:v>
+                  <c:v>5733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8199</c:v>
+                  <c:v>9591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13383</c:v>
+                  <c:v>15480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20475</c:v>
+                  <c:v>23547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26946</c:v>
+                  <c:v>31005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45126</c:v>
+                  <c:v>51846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63639</c:v>
+                  <c:v>73353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92241</c:v>
+                  <c:v>106104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124281</c:v>
+                  <c:v>142611</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>204687</c:v>
+                  <c:v>234402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>302499</c:v>
+                  <c:v>345960</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>408789</c:v>
+                  <c:v>468630</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>546480</c:v>
+                  <c:v>625566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>867591</c:v>
+                  <c:v>992862</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1271511</c:v>
+                  <c:v>1454067</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1743048</c:v>
+                  <c:v>1994061</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2299077</c:v>
+                  <c:v>2629767</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4154493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6047664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3465,7 +3764,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Trend</c:v>
           </c:tx>
@@ -3531,10 +3830,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops Rand MinFill'!$A$4:$A$20</c:f>
+              <c:f>'MCB BDD Ops Rand MinFill'!$A$4:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -3585,66 +3884,138 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops Rand MinFill'!$C$4:$C$20</c:f>
+              <c:f>'MCB BDD Ops Rand MinFill'!$D$4:$D$32</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16374.616172486574</c:v>
+                  <c:v>3341.3581249724675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24499.75167813744</c:v>
+                  <c:v>5082.0612095558517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34444.040213304288</c:v>
+                  <c:v>7244.6516473208876</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46267.527356211518</c:v>
+                  <c:v>9849.1553067593322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75761.300170798539</c:v>
+                  <c:v>16454.777554177981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113354.29309886131</c:v>
+                  <c:v>25027.005065686386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159364.05728275061</c:v>
+                  <c:v>35676.849608916593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>214068.40876577795</c:v>
+                  <c:v>48502.930128332759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>350528.80281945708</c:v>
+                  <c:v>81032.829834638193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>524462.28568955802</c:v>
+                  <c:v>123247.42987749887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>737338.08799265279</c:v>
+                  <c:v>175693.41632705793</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>990441.59586712916</c:v>
+                  <c:v>238856.44583342245</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1621810.097358929</c:v>
+                  <c:v>399052.46299377602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2426557.3150442825</c:v>
+                  <c:v>606941.53901120776</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3411481.0156976678</c:v>
+                  <c:v>865215.87189015734</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4582528.3631512159</c:v>
+                  <c:v>1176267.1155169639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1965164.841785264</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2988930.7399224541</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4260822.748059677</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5792618.7514801938</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9677606.8650630899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14719221.529321682</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20982752.490106404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28526200.858087406</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47658126.505883373</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72485949.418442354</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>103331194.01917462</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140479491.28155696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3672,7 +4043,7 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="128"/>
+          <c:max val="1024"/>
           <c:min val="8"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3737,8 +4108,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="10000000"/>
-          <c:min val="100"/>
+          <c:max val="1000000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7913,6 +8284,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8160,6 +8532,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8407,6 +8780,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8654,6 +9028,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8901,253 +9276,460 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D964F376-F3DA-ED49-B650-60DA3AFC5D76}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C2" s="2">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>4914</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="3">
+        <v>10452</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5733</v>
+      </c>
+      <c r="D4" s="4">
         <f>POWER(A4,$C$2)*B$2/POWER(A$4,$C$2)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>8199</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="3">
+        <v>19008</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9591</v>
+      </c>
+      <c r="D5" s="4">
         <f>POWER(A5,$C$2)*B$2/POWER(A$4,$C$2)</f>
-        <v>16374.616172486574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>3341.3581249724675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>13383</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C20" si="0">POWER(A6,$C$2)*B$2/POWER(A$4,$C$2)</f>
-        <v>24499.75167813744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B6" s="3">
+        <v>30168</v>
+      </c>
+      <c r="C6" s="4">
+        <v>15480</v>
+      </c>
+      <c r="D6" s="4">
+        <f>POWER(A6,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>5082.0612095558517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>20475</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="3">
+        <v>44832</v>
+      </c>
+      <c r="C7" s="4">
+        <v>23547</v>
+      </c>
+      <c r="D7" s="4">
+        <f>POWER(A7,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>7244.6516473208876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>61956</v>
+      </c>
+      <c r="C8" s="4">
+        <v>31005</v>
+      </c>
+      <c r="D8" s="4">
+        <f>POWER(A8,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>9849.1553067593322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>107724</v>
+      </c>
+      <c r="C9" s="4">
+        <v>51846</v>
+      </c>
+      <c r="D9" s="4">
+        <f>POWER(A9,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>16454.777554177981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>166068</v>
+      </c>
+      <c r="C10" s="4">
+        <v>73353</v>
+      </c>
+      <c r="D10" s="4">
+        <f>POWER(A10,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>25027.005065686386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <v>240876</v>
+      </c>
+      <c r="C11" s="4">
+        <v>106104</v>
+      </c>
+      <c r="D11" s="4">
+        <f>POWER(A11,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>35676.849608916593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>327396</v>
+      </c>
+      <c r="C12" s="4">
+        <v>142611</v>
+      </c>
+      <c r="D12" s="4">
+        <f>POWER(A12,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>48502.930128332759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3">
+        <v>554868</v>
+      </c>
+      <c r="C13" s="4">
+        <v>234402</v>
+      </c>
+      <c r="D13" s="4">
+        <f>POWER(A13,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>81032.829834638193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3">
+        <v>842436</v>
+      </c>
+      <c r="C14" s="4">
+        <v>345960</v>
+      </c>
+      <c r="D14" s="4">
+        <f>POWER(A14,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>123247.42987749887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1203636</v>
+      </c>
+      <c r="C15" s="4">
+        <v>468630</v>
+      </c>
+      <c r="D15" s="4">
+        <f>POWER(A15,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>175693.41632705793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1620900</v>
+      </c>
+      <c r="C16" s="4">
+        <v>625566</v>
+      </c>
+      <c r="D16" s="4">
+        <f>POWER(A16,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>238856.44583342245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2703684</v>
+      </c>
+      <c r="C17" s="4">
+        <v>992862</v>
+      </c>
+      <c r="D17" s="4">
+        <f>POWER(A17,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>399052.46299377602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>96</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4064868</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1454067</v>
+      </c>
+      <c r="D18" s="4">
+        <f>POWER(A18,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>606941.53901120776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>112</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5754564</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1994061</v>
+      </c>
+      <c r="D19" s="4">
+        <f>POWER(A19,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>865215.87189015734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>128</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7705380</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2629767</v>
+      </c>
+      <c r="D20" s="4">
+        <f>POWER(A20,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>1176267.1155169639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3">
+        <v>12716388</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4154493</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:D32" si="0">POWER(A21,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <v>1965164.841785264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>192</v>
+      </c>
+      <c r="B22" s="3">
+        <v>18990756</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6047664</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>34444.040213304288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>26946</v>
-      </c>
-      <c r="C8" s="1">
+        <v>2988930.7399224541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>224</v>
+      </c>
+      <c r="B23" s="3">
+        <v>26720868</v>
+      </c>
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>46267.527356211518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>45126</v>
-      </c>
-      <c r="C9" s="1">
+        <v>4260822.748059677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>256</v>
+      </c>
+      <c r="B24" s="3">
+        <v>35642916</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>75761.300170798539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>63639</v>
-      </c>
-      <c r="C10" s="1">
+        <v>5792618.7514801938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>320</v>
+      </c>
+      <c r="B25" s="3">
+        <v>58378404</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>113354.29309886131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>92241</v>
-      </c>
-      <c r="C11" s="1">
+        <v>9677606.8650630899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>384</v>
+      </c>
+      <c r="B26" s="3">
+        <v>86761764</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>159364.05728275061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>124281</v>
-      </c>
-      <c r="C12" s="1">
+        <v>14719221.529321682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>448</v>
+      </c>
+      <c r="B27" s="3">
+        <v>121546404</v>
+      </c>
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>214068.40876577795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>204687</v>
-      </c>
-      <c r="C13" s="1">
+        <v>20982752.490106404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>512</v>
+      </c>
+      <c r="B28" s="3">
+        <v>161688612</v>
+      </c>
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>350528.80281945708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>302499</v>
-      </c>
-      <c r="C14" s="1">
+        <v>28526200.858087406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>640</v>
+      </c>
+      <c r="B29" s="3">
+        <v>263331108</v>
+      </c>
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>524462.28568955802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>56</v>
-      </c>
-      <c r="B15">
-        <v>408789</v>
-      </c>
-      <c r="C15" s="1">
+        <v>47658126.505883373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>768</v>
+      </c>
+      <c r="B30" s="3">
+        <v>389933604</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>737338.08799265279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>64</v>
-      </c>
-      <c r="B16">
-        <v>546480</v>
-      </c>
-      <c r="C16" s="1">
+        <v>72485949.418442354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>896</v>
+      </c>
+      <c r="B31" s="3">
+        <v>544477476</v>
+      </c>
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>990441.59586712916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>80</v>
-      </c>
-      <c r="B17">
-        <v>867591</v>
-      </c>
-      <c r="C17" s="1">
+        <v>103331194.01917462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B32" s="3">
+        <v>722810916</v>
+      </c>
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>1621810.097358929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>96</v>
-      </c>
-      <c r="B18">
-        <v>1271511</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>2426557.3150442825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>112</v>
-      </c>
-      <c r="B19">
-        <v>1743048</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>3411481.0156976678</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>128</v>
-      </c>
-      <c r="B20">
-        <v>2299077</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>4582528.3631512159</v>
+        <v>140479491.28155696</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/explore/pseudoboolean/mcb-scaling.xlsx
+++ b/explore/pseudoboolean/mcb-scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52AA79-4E02-FC44-B4D8-FB587F6707D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C9FCD5-168D-C041-8F50-AC8109AFD251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="11300" windowWidth="32440" windowHeight="15860" firstSheet="1" activeTab="5" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
@@ -3453,91 +3453,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>10452</c:v>
+                  <c:v>13488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19008</c:v>
+                  <c:v>24624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30168</c:v>
+                  <c:v>39168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44832</c:v>
+                  <c:v>58320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61956</c:v>
+                  <c:v>80688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107724</c:v>
+                  <c:v>140592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166068</c:v>
+                  <c:v>217008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240876</c:v>
+                  <c:v>315120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>327396</c:v>
+                  <c:v>428592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>554868</c:v>
+                  <c:v>727344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>842436</c:v>
+                  <c:v>1105200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1203636</c:v>
+                  <c:v>1580208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1620900</c:v>
+                  <c:v>2128944</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2703684</c:v>
+                  <c:v>3554352</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4064868</c:v>
+                  <c:v>5346864</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5754564</c:v>
+                  <c:v>7573296</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7705380</c:v>
+                  <c:v>10143792</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12716388</c:v>
+                  <c:v>16751664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18990756</c:v>
+                  <c:v>25027632</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26720868</c:v>
+                  <c:v>35228208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35642916</c:v>
+                  <c:v>47001648</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58378404</c:v>
+                  <c:v>77021232</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>86761764</c:v>
+                  <c:v>114505776</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>121546404</c:v>
+                  <c:v>160459824</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>161688612</c:v>
+                  <c:v>213491760</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>263331108</c:v>
+                  <c:v>347836464</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>389933604</c:v>
+                  <c:v>515199024</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>544477476</c:v>
+                  <c:v>719554608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>722810916</c:v>
+                  <c:v>955367472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9286,7 +9286,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9327,13 +9327,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>10452</v>
+        <v>13488</v>
       </c>
       <c r="C4" s="4">
         <v>5733</v>
       </c>
       <c r="D4" s="4">
-        <f>POWER(A4,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" ref="D4:D20" si="0">POWER(A4,$C$2)*B$2/POWER(A$4,$C$2)</f>
         <v>2000</v>
       </c>
     </row>
@@ -9342,13 +9342,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>19008</v>
+        <v>24624</v>
       </c>
       <c r="C5" s="4">
         <v>9591</v>
       </c>
       <c r="D5" s="4">
-        <f>POWER(A5,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>3341.3581249724675</v>
       </c>
     </row>
@@ -9357,13 +9357,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>30168</v>
+        <v>39168</v>
       </c>
       <c r="C6" s="4">
         <v>15480</v>
       </c>
       <c r="D6" s="4">
-        <f>POWER(A6,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>5082.0612095558517</v>
       </c>
     </row>
@@ -9372,13 +9372,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>44832</v>
+        <v>58320</v>
       </c>
       <c r="C7" s="4">
         <v>23547</v>
       </c>
       <c r="D7" s="4">
-        <f>POWER(A7,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>7244.6516473208876</v>
       </c>
     </row>
@@ -9387,13 +9387,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>61956</v>
+        <v>80688</v>
       </c>
       <c r="C8" s="4">
         <v>31005</v>
       </c>
       <c r="D8" s="4">
-        <f>POWER(A8,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>9849.1553067593322</v>
       </c>
     </row>
@@ -9402,13 +9402,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>107724</v>
+        <v>140592</v>
       </c>
       <c r="C9" s="4">
         <v>51846</v>
       </c>
       <c r="D9" s="4">
-        <f>POWER(A9,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>16454.777554177981</v>
       </c>
     </row>
@@ -9417,13 +9417,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>166068</v>
+        <v>217008</v>
       </c>
       <c r="C10" s="4">
         <v>73353</v>
       </c>
       <c r="D10" s="4">
-        <f>POWER(A10,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>25027.005065686386</v>
       </c>
     </row>
@@ -9432,13 +9432,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="3">
-        <v>240876</v>
+        <v>315120</v>
       </c>
       <c r="C11" s="4">
         <v>106104</v>
       </c>
       <c r="D11" s="4">
-        <f>POWER(A11,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>35676.849608916593</v>
       </c>
     </row>
@@ -9447,13 +9447,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="3">
-        <v>327396</v>
+        <v>428592</v>
       </c>
       <c r="C12" s="4">
         <v>142611</v>
       </c>
       <c r="D12" s="4">
-        <f>POWER(A12,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>48502.930128332759</v>
       </c>
     </row>
@@ -9462,13 +9462,13 @@
         <v>40</v>
       </c>
       <c r="B13" s="3">
-        <v>554868</v>
+        <v>727344</v>
       </c>
       <c r="C13" s="4">
         <v>234402</v>
       </c>
       <c r="D13" s="4">
-        <f>POWER(A13,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>81032.829834638193</v>
       </c>
     </row>
@@ -9477,13 +9477,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="3">
-        <v>842436</v>
+        <v>1105200</v>
       </c>
       <c r="C14" s="4">
         <v>345960</v>
       </c>
       <c r="D14" s="4">
-        <f>POWER(A14,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>123247.42987749887</v>
       </c>
     </row>
@@ -9492,13 +9492,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="3">
-        <v>1203636</v>
+        <v>1580208</v>
       </c>
       <c r="C15" s="4">
         <v>468630</v>
       </c>
       <c r="D15" s="4">
-        <f>POWER(A15,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>175693.41632705793</v>
       </c>
     </row>
@@ -9507,13 +9507,13 @@
         <v>64</v>
       </c>
       <c r="B16" s="3">
-        <v>1620900</v>
+        <v>2128944</v>
       </c>
       <c r="C16" s="4">
         <v>625566</v>
       </c>
       <c r="D16" s="4">
-        <f>POWER(A16,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>238856.44583342245</v>
       </c>
     </row>
@@ -9522,13 +9522,13 @@
         <v>80</v>
       </c>
       <c r="B17" s="3">
-        <v>2703684</v>
+        <v>3554352</v>
       </c>
       <c r="C17" s="4">
         <v>992862</v>
       </c>
       <c r="D17" s="4">
-        <f>POWER(A17,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>399052.46299377602</v>
       </c>
     </row>
@@ -9537,13 +9537,13 @@
         <v>96</v>
       </c>
       <c r="B18" s="3">
-        <v>4064868</v>
+        <v>5346864</v>
       </c>
       <c r="C18" s="4">
         <v>1454067</v>
       </c>
       <c r="D18" s="4">
-        <f>POWER(A18,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>606941.53901120776</v>
       </c>
     </row>
@@ -9552,13 +9552,13 @@
         <v>112</v>
       </c>
       <c r="B19" s="3">
-        <v>5754564</v>
+        <v>7573296</v>
       </c>
       <c r="C19" s="4">
         <v>1994061</v>
       </c>
       <c r="D19" s="4">
-        <f>POWER(A19,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>865215.87189015734</v>
       </c>
     </row>
@@ -9567,13 +9567,13 @@
         <v>128</v>
       </c>
       <c r="B20" s="3">
-        <v>7705380</v>
+        <v>10143792</v>
       </c>
       <c r="C20" s="4">
         <v>2629767</v>
       </c>
       <c r="D20" s="4">
-        <f>POWER(A20,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" si="0"/>
         <v>1176267.1155169639</v>
       </c>
     </row>
@@ -9582,13 +9582,13 @@
         <v>160</v>
       </c>
       <c r="B21" s="3">
-        <v>12716388</v>
+        <v>16751664</v>
       </c>
       <c r="C21" s="4">
         <v>4154493</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ref="D21:D32" si="0">POWER(A21,$C$2)*B$2/POWER(A$4,$C$2)</f>
+        <f t="shared" ref="D21:D32" si="1">POWER(A21,$C$2)*B$2/POWER(A$4,$C$2)</f>
         <v>1965164.841785264</v>
       </c>
     </row>
@@ -9597,13 +9597,13 @@
         <v>192</v>
       </c>
       <c r="B22" s="3">
-        <v>18990756</v>
+        <v>25027632</v>
       </c>
       <c r="C22" s="4">
         <v>6047664</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2988930.7399224541</v>
       </c>
     </row>
@@ -9612,10 +9612,10 @@
         <v>224</v>
       </c>
       <c r="B23" s="3">
-        <v>26720868</v>
+        <v>35228208</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4260822.748059677</v>
       </c>
     </row>
@@ -9624,10 +9624,10 @@
         <v>256</v>
       </c>
       <c r="B24" s="3">
-        <v>35642916</v>
+        <v>47001648</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5792618.7514801938</v>
       </c>
     </row>
@@ -9636,10 +9636,10 @@
         <v>320</v>
       </c>
       <c r="B25" s="3">
-        <v>58378404</v>
+        <v>77021232</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9677606.8650630899</v>
       </c>
     </row>
@@ -9648,10 +9648,10 @@
         <v>384</v>
       </c>
       <c r="B26" s="3">
-        <v>86761764</v>
+        <v>114505776</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14719221.529321682</v>
       </c>
     </row>
@@ -9660,10 +9660,10 @@
         <v>448</v>
       </c>
       <c r="B27" s="3">
-        <v>121546404</v>
+        <v>160459824</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20982752.490106404</v>
       </c>
     </row>
@@ -9672,10 +9672,10 @@
         <v>512</v>
       </c>
       <c r="B28" s="3">
-        <v>161688612</v>
+        <v>213491760</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28526200.858087406</v>
       </c>
     </row>
@@ -9684,10 +9684,10 @@
         <v>640</v>
       </c>
       <c r="B29" s="3">
-        <v>263331108</v>
+        <v>347836464</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47658126.505883373</v>
       </c>
     </row>
@@ -9696,10 +9696,10 @@
         <v>768</v>
       </c>
       <c r="B30" s="3">
-        <v>389933604</v>
+        <v>515199024</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72485949.418442354</v>
       </c>
     </row>
@@ -9708,10 +9708,10 @@
         <v>896</v>
       </c>
       <c r="B31" s="3">
-        <v>544477476</v>
+        <v>719554608</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103331194.01917462</v>
       </c>
     </row>
@@ -9720,10 +9720,10 @@
         <v>1024</v>
       </c>
       <c r="B32" s="3">
-        <v>722810916</v>
+        <v>955367472</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140479491.28155696</v>
       </c>
     </row>

--- a/explore/pseudoboolean/mcb-scaling.xlsx
+++ b/explore/pseudoboolean/mcb-scaling.xlsx
@@ -8,38 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/explore/pseudoboolean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FAADC5-0692-EA45-96F7-0A7289043F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C26D3AE-4750-D24D-ACAA-5ECA9CF48148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="10080" windowWidth="36000" windowHeight="15860" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
+    <workbookView xWindow="4840" yWindow="3520" windowWidth="36000" windowHeight="15860" activeTab="1" xr2:uid="{544DE29A-88F0-0E4C-87E1-E71170600DAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="MCB BDD Ops" sheetId="8" r:id="rId1"/>
+    <sheet name="MCB BDD Ops Equations" sheetId="8" r:id="rId1"/>
+    <sheet name="MCB BDD Ops Both" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'MCB BDD Ops'!$A$4:$A$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'MCB BDD Ops'!$A$4:$A$32</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'MCB BDD Ops'!$H$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'MCB BDD Ops'!$H$4:$H$32</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'MCB BDD Ops'!$A$4:$A$24</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'MCB BDD Ops'!$A$4:$A$32</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'MCB BDD Ops'!$A$4:$A$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'MCB BDD Ops'!$B$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'MCB BDD Ops'!$B$4:$B$32</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'MCB BDD Ops'!$C$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'MCB BDD Ops'!$D$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'MCB BDD Ops'!$D$4:$D$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'MCB BDD Ops'!$A$4:$A$9</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'MCB BDD Ops'!$G$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'MCB BDD Ops'!$G$4:$G$9</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'MCB BDD Ops'!$H$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'MCB BDD Ops'!$H$4:$H$32</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'MCB BDD Ops'!$B$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'MCB BDD Ops'!$B$4:$B$32</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'MCB BDD Ops'!$C$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'MCB BDD Ops'!$D$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'MCB BDD Ops'!$D$4:$D$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'MCB BDD Ops'!$G$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'MCB BDD Ops'!$G$4:$G$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'MCB BDD Ops Equations'!$A$4:$A$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'MCB BDD Ops Equations'!$A$4:$A$32</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'MCB BDD Ops Equations'!$H$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'MCB BDD Ops Equations'!$H$4:$H$32</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'MCB BDD Ops Equations'!$A$4:$A$24</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'MCB BDD Ops Equations'!$A$4:$A$32</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'MCB BDD Ops Equations'!$A$4:$A$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'MCB BDD Ops Equations'!$B$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'MCB BDD Ops Equations'!$B$4:$B$32</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'MCB BDD Ops Equations'!$C$3</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'MCB BDD Ops Equations'!$D$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'MCB BDD Ops Equations'!$D$4:$D$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'MCB BDD Ops Equations'!$A$4:$A$9</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'MCB BDD Ops Equations'!$G$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'MCB BDD Ops Equations'!$G$4:$G$9</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'MCB BDD Ops Equations'!$H$3</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'MCB BDD Ops Equations'!$H$4:$H$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'MCB BDD Ops Equations'!$B$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'MCB BDD Ops Equations'!$B$4:$B$32</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'MCB BDD Ops Equations'!$C$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'MCB BDD Ops Equations'!$D$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'MCB BDD Ops Equations'!$D$4:$D$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'MCB BDD Ops Equations'!$G$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'MCB BDD Ops Equations'!$G$4:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>N</t>
   </si>
@@ -230,217 +231,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MCB BDD Ops'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Constraints</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MCB BDD Ops'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MCB BDD Ops'!$D$4:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>72927</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4234684</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>320912046</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20524680200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1467338051584</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99888147457340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A181-9C4E-82F8-51B881736AE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MCB BDD Ops'!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n^6 trend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MCB BDD Ops'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MCB BDD Ops'!$G$4:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81920000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5242880000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>335544320000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21474836480000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A181-9C4E-82F8-51B881736AE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MCB BDD Ops'!$C$3</c:f>
+              <c:f>'MCB BDD Ops Equations'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -479,7 +274,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops'!$A$4:$A$24</c:f>
+              <c:f>'MCB BDD Ops Equations'!$A$4:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -506,12 +301,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops'!$C$3</c:f>
+              <c:f>'MCB BDD Ops Equations'!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1620900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7705380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35642916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,10 +335,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MCB BDD Ops'!$B$3</c:f>
+              <c:f>'MCB BDD Ops Equations'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,7 +377,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops'!$A$4:$A$32</c:f>
+              <c:f>'MCB BDD Ops Equations'!$A$4:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -594,7 +404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops'!$B$4:$B$32</c:f>
+              <c:f>'MCB BDD Ops Equations'!$B$4:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -628,10 +438,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MCB BDD Ops'!$H$3</c:f>
+              <c:f>'MCB BDD Ops Equations'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -672,7 +482,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops'!$A$4:$A$32</c:f>
+              <c:f>'MCB BDD Ops Equations'!$A$4:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -699,7 +509,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MCB BDD Ops'!$H$4:$H$32</c:f>
+              <c:f>'MCB BDD Ops Equations'!$H$4:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="29"/>
@@ -728,6 +538,818 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A181-9C4E-82F8-51B881736AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1388773584"/>
+        <c:axId val="1389361440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1388773584"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="256"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389361440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1389361440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388773584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mutilated Chessboard </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Projected BDD Operations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MCB BDD Ops Both'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Constraints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>72927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4234684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320912046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20524680200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1467338051584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99888147457340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C8-9440-AFFC-E28DDF7FD3BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MCB BDD Ops Both'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^6 trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81920000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5242880000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335544320000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21474836480000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36C8-9440-AFFC-E28DDF7FD3BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MCB BDD Ops Both'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equ+Presum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$A$4:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1620900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7705380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35642916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36C8-9440-AFFC-E28DDF7FD3BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MCB BDD Ops Both'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equ+GE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>5733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2629767</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10904838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-36C8-9440-AFFC-E28DDF7FD3BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MCB BDD Ops Both'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2 log n trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MCB BDD Ops Both'!$H$4:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2500.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000.00000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2560000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-36C8-9440-AFFC-E28DDF7FD3BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -986,7 +1608,565 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1525,6 +2705,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D3A492-6385-A74A-A1DE-D7DB43653C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>808182</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333536</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5668FC-E528-3946-A29C-B2FC9FB82BBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12631550-42EC-FC4B-ACA4-BB34AC58BF6A}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2068,6 +3291,318 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF65ED1-3E12-0F40-AFAD-B782E9C59448}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5733</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10452</v>
+      </c>
+      <c r="D4" s="3">
+        <v>72927</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G9" si="0">POWER(A4,$G$2)*F$2/POWER(A$4,$G$2)</f>
+        <v>20000</v>
+      </c>
+      <c r="H4" s="2">
+        <f>POWER(A4,$H$2)*LOG10(A4)*H$1/(POWER(A$4,$H$2)*LOG10(A4))</f>
+        <v>2500.0000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>31005</v>
+      </c>
+      <c r="C5" s="3">
+        <v>61956</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4234684</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>1280000</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H9" si="1">POWER(A5,$H$2)*LOG10(A5)*H$1/(POWER(A$4,$H$2)*LOG10(A5))</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>142611</v>
+      </c>
+      <c r="C6" s="3">
+        <v>327396</v>
+      </c>
+      <c r="D6" s="3">
+        <v>320912046</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>81920000</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3">
+        <v>625566</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1620900</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20524680200</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>5242880000</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>160000.00000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>128</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2629767</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7705380</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1467338051584</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>335544320000</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>256</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10904838</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35642916</v>
+      </c>
+      <c r="D9" s="3">
+        <v>99888147457340</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>21474836480000</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>2560000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
